--- a/src/main/resources/downloader Template.xlsx
+++ b/src/main/resources/downloader Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,20 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Local symbol</t>
-  </si>
-  <si>
-    <t>Expirary</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-  </si>
-  <si>
-    <t>Start Time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="10">
   <si>
     <r>
       <t>Sec Type</t>
@@ -91,37 +78,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HKD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HKFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>Start Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Expirary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Local symbol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>STK</t>
+  </si>
+  <si>
+    <t>HKSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -135,6 +158,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -192,7 +221,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -205,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -491,70 +520,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
+        <v>700</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H2" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H3" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>939</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H4" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1299</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H5" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1398</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H6" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>941</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H7" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2318</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H8" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3988</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H9" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>388</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H10" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H11" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6">
+        <v>883</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1113</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H13" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6">
+        <v>2628</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H14" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6">
+        <v>16</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H15" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6">
+        <v>823</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H16" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="6">
+        <v>386</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H17" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>175</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H19" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H20" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2388</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H21" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6">
+        <v>27</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H22" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6">
-        <v>201802</v>
-      </c>
-      <c r="G2" s="3">
-        <v>43137.625</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43137.75</v>
+      <c r="C23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H23" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2007</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H24" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="6">
+        <v>857</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H25" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <v>688</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H26" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H27" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="6">
+        <v>762</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H28" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1928</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H29" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="6">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H30" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="6">
+        <v>288</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H31" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="6">
+        <v>66</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H32" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1088</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H33" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6">
+        <v>2382</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H34" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="6">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H35" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1109</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H36" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="6">
+        <v>267</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H37" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1997</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H38" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="6">
+        <v>2319</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H39" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="6">
+        <v>12</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H40" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1044</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H41" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3328</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H42" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="6">
+        <v>23</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H43" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="6">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H44" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1038</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H45" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6">
+        <v>101</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H46" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="6">
+        <v>151</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H47" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="6">
+        <v>19</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="6">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H49" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="6">
+        <v>992</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H50" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="6">
+        <v>144</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H51" s="3">
+        <v>43137.677083333336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="6">
+        <v>836</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="3">
+        <v>43137.541666666664</v>
+      </c>
+      <c r="H52" s="3">
+        <v>43137.677083333336</v>
       </c>
     </row>
   </sheetData>
@@ -570,7 +1594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -583,7 +1607,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/downloader Template.xlsx
+++ b/src/main/resources/downloader Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="14100"/>
@@ -127,24 +127,24 @@
     <t>STK</t>
   </si>
   <si>
-    <t>HKSE</t>
+    <t>SEHK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -221,7 +221,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -522,9 +522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="6" bestFit="1" customWidth="1"/>
@@ -535,7 +537,7 @@
     <col min="7" max="8" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -561,7 +563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -574,14 +576,10 @@
       <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H2" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -594,14 +592,10 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H3" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -614,14 +608,10 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H4" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -634,14 +624,10 @@
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H5" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -654,14 +640,10 @@
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H6" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -674,14 +656,10 @@
       <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H7" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -694,14 +672,10 @@
       <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H8" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -714,14 +688,10 @@
       <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H9" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -734,14 +704,10 @@
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H10" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -754,14 +720,10 @@
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H11" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -774,14 +736,10 @@
       <c r="D12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H12" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -794,14 +752,10 @@
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H13" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -814,14 +768,10 @@
       <c r="D14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H14" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -834,14 +784,10 @@
       <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H15" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -854,14 +800,10 @@
       <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H16" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -874,14 +816,10 @@
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H17" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -894,14 +832,10 @@
       <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H18" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -914,14 +848,10 @@
       <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H19" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -934,14 +864,10 @@
       <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H20" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -954,14 +880,10 @@
       <c r="D21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H21" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -974,14 +896,10 @@
       <c r="D22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H22" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -994,14 +912,10 @@
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H23" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -1014,14 +928,10 @@
       <c r="D24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H24" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1034,14 +944,10 @@
       <c r="D25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H25" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -1054,14 +960,10 @@
       <c r="D26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H26" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1074,14 +976,10 @@
       <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H27" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1094,14 +992,10 @@
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H28" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -1114,14 +1008,10 @@
       <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H29" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -1134,14 +1024,10 @@
       <c r="D30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H30" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -1154,14 +1040,10 @@
       <c r="D31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H31" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -1174,14 +1056,10 @@
       <c r="D32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H32" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -1194,14 +1072,10 @@
       <c r="D33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H33" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -1214,14 +1088,10 @@
       <c r="D34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H34" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -1234,14 +1104,10 @@
       <c r="D35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H35" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -1254,14 +1120,10 @@
       <c r="D36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G36" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H36" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -1274,14 +1136,10 @@
       <c r="D37" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G37" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H37" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -1294,14 +1152,10 @@
       <c r="D38" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H38" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -1314,14 +1168,10 @@
       <c r="D39" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H39" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -1334,14 +1184,10 @@
       <c r="D40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H40" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -1354,14 +1200,10 @@
       <c r="D41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H41" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -1374,14 +1216,10 @@
       <c r="D42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H42" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -1394,14 +1232,10 @@
       <c r="D43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H43" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -1414,14 +1248,10 @@
       <c r="D44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G44" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H44" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>8</v>
       </c>
@@ -1434,14 +1264,10 @@
       <c r="D45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H45" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>8</v>
       </c>
@@ -1454,14 +1280,10 @@
       <c r="D46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H46" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
@@ -1474,14 +1296,10 @@
       <c r="D47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H47" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -1494,14 +1312,10 @@
       <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H48" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
@@ -1514,14 +1328,10 @@
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G49" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H49" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>8</v>
       </c>
@@ -1534,14 +1344,10 @@
       <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G50" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H50" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
@@ -1554,14 +1360,10 @@
       <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H51" s="3">
-        <v>43137.677083333336</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
@@ -1574,12 +1376,8 @@
       <c r="D52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="3">
-        <v>43137.541666666664</v>
-      </c>
-      <c r="H52" s="3">
-        <v>43137.677083333336</v>
-      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1594,7 +1392,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1607,7 +1405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/downloader Template.xlsx
+++ b/src/main/resources/downloader Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="13">
   <si>
     <r>
       <t>Sec Type</t>
@@ -129,12 +129,57 @@
   <si>
     <t>SEHK</t>
   </si>
+  <si>
+    <r>
+      <t>End Time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ticker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,13 +565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="6" bestFit="1" customWidth="1"/>
@@ -535,9 +580,10 @@
     <col min="5" max="5" width="23.75" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.75" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -560,10 +606,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -579,7 +631,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -595,7 +647,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -611,7 +663,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -627,7 +679,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -643,7 +695,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -659,7 +711,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -675,7 +727,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -691,7 +743,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -707,7 +759,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -723,7 +775,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -739,7 +791,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -755,7 +807,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -771,7 +823,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
@@ -787,7 +839,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
@@ -803,7 +855,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
@@ -819,7 +871,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -835,7 +887,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
@@ -851,7 +903,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="6" t="s">
         <v>8</v>
       </c>
@@ -867,7 +919,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
@@ -883,7 +935,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="6" t="s">
         <v>8</v>
       </c>
@@ -899,7 +951,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
@@ -915,7 +967,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="6" t="s">
         <v>8</v>
       </c>
@@ -931,7 +983,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -947,7 +999,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
@@ -963,7 +1015,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1031,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
@@ -995,7 +1047,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -1011,7 +1063,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1079,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1095,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1111,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1127,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
@@ -1091,7 +1143,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1159,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1175,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1191,7 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
@@ -1155,7 +1207,7 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1223,7 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
@@ -1187,7 +1239,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1255,7 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1271,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="6" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +1287,7 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="6" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1303,7 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="6" t="s">
         <v>8</v>
       </c>
@@ -1267,7 +1319,7 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="6" t="s">
         <v>8</v>
       </c>
@@ -1283,7 +1335,7 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="6" t="s">
         <v>8</v>
       </c>
@@ -1299,7 +1351,7 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="6" t="s">
         <v>8</v>
       </c>
@@ -1315,7 +1367,7 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="6" t="s">
         <v>8</v>
       </c>
@@ -1331,7 +1383,7 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="6" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1399,7 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1415,7 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
@@ -1392,7 +1444,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,7 +1457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
